--- a/KUSHAL.xlsx
+++ b/KUSHAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">1. Go to Necklaces &gt;KUNDAN NECKLACES .
 Actual: Kundan jewellery with Antique Jewellery is displayed.
@@ -217,6 +217,45 @@
  1. "incorrect data! Only numeric values are accepted"
 2. The User must not be able to add a new address without filling the required fields
 Note: Check for the same defect in </t>
+  </si>
+  <si>
+    <t>MOBILE SITE</t>
+  </si>
+  <si>
+    <t>Locate Stores: All the locations are not displayed.</t>
+  </si>
+  <si>
+    <t>MENU: Social media Icons are overlapping the menu list.
+Click on menu scrool down the page to the footer section.
+Actual: The social media icons are overlapped menu list in the footer section.
+Expected: The page should not overlap the menu list</t>
+  </si>
+  <si>
+    <t>Full Details: Details of the product not aligned correctly.
+1. Select any item in the jewllery list.
+2. Click on quick list
+Actual: The details of the product not aligned correctly.
+Expected: The Details of the product should arrange correctly.</t>
+  </si>
+  <si>
+    <t>Ask Us a question:The page is not aligned correctly
+1. Select any item in the jewllery list.
+2. Click on quick list and select ask us a question.
+Actual:The page is not aligned correctly
+Expected: The Ask us a question page should align correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Menu : Menu colour and the page color are same.
+1. Click on menu icon.
+Actual: The product page and menu list both have the same colour.
+Expected: The menu colour should changed to black</t>
+  </si>
+  <si>
+    <t>Footer: The list showing a Viewing Items 1-48 of 150 the next and previous numbers displayed as black patches</t>
+  </si>
+  <si>
+    <t>Cart: The Items showing in the Mobile site and Web view is different(User logged In)</t>
   </si>
 </sst>
 </file>
@@ -577,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,6 +770,46 @@
     <row r="29" spans="1:1" ht="135">
       <c r="A29" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="60">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="75">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="75">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="105">
+      <c r="A39" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
